--- a/res/data.xlsx
+++ b/res/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Match</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Climb</t>
-  </si>
-  <si>
-    <t>Switch (opp)</t>
   </si>
   <si>
     <t>Auton</t>
@@ -378,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,36 +387,32 @@
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,41 +420,35 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/res/data.xlsx
+++ b/res/data.xlsx
@@ -378,22 +378,22 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
